--- a/inst/extdata/main_dict_tanzania_cg.xlsx
+++ b/inst/extdata/main_dict_tanzania_cg.xlsx
@@ -1634,9 +1634,6 @@
     <t>crfs-t09a1-vaccine_injection</t>
   </si>
   <si>
-    <t>yg_infant_ctg</t>
-  </si>
-  <si>
     <t>end</t>
   </si>
   <si>
@@ -2193,6 +2190,9 @@
   </si>
   <si>
     <t>a4_c_4_cpy</t>
+  </si>
+  <si>
+    <t>who_age_ctg</t>
   </si>
 </sst>
 </file>
@@ -2642,22 +2642,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="5" width="9.25" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>429</v>
       </c>
@@ -2787,13 +2787,13 @@
         <v>429</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>615</v>
-      </c>
       <c r="C6" s="2">
         <v>0</v>
       </c>
@@ -2810,16 +2810,16 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>552</v>
-      </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
@@ -2836,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>495</v>
       </c>
@@ -2865,12 +2865,12 @@
         <v>495</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -2891,241 +2891,241 @@
         <v>495</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
         <v>537</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B12" s="20" t="s">
+        <v>538</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="20" t="s">
         <v>537</v>
       </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
-        <v>538</v>
-      </c>
-      <c r="B12" s="20" t="s">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
         <v>539</v>
       </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
+      <c r="B13" s="20" t="s">
         <v>540</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
         <v>541</v>
       </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
+      <c r="B14" s="20" t="s">
         <v>542</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
         <v>543</v>
       </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
+      <c r="B15" s="20" t="s">
         <v>544</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
         <v>545</v>
       </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="B16" s="16" t="s">
+        <v>547</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="16" t="s">
         <v>546</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
+        <v>654</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
         <v>655</v>
       </c>
-      <c r="B17" s="23" t="s">
-        <v>651</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="23" t="s">
+      <c r="B18" s="23" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
-        <v>656</v>
-      </c>
-      <c r="B18" s="23" t="s">
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="23" t="s">
         <v>653</v>
       </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>350</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>316</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>317</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>430</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>318</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>319</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>438</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>320</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>321</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>322</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>437</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>324</v>
       </c>
@@ -3437,7 +3437,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>325</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>326</v>
       </c>
@@ -3489,12 +3489,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>323</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>536</v>
+        <v>722</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -3515,7 +3515,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
         <v>327</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="24" t="s">
         <v>328</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="24" t="s">
         <v>329</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
         <v>330</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="24" t="s">
         <v>331</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>332</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>333</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
         <v>452</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>334</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>335</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>336</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>337</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>456</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>338</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>339</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>340</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>341</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>342</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>343</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>344</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>345</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>346</v>
       </c>
@@ -4087,7 +4087,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>347</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>348</v>
       </c>
@@ -4139,59 +4139,59 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="C58" s="2">
-        <v>1</v>
-      </c>
-      <c r="D58" s="2">
-        <v>1</v>
-      </c>
-      <c r="E58" s="4">
-        <v>1</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1</v>
-      </c>
-      <c r="H58" s="6" t="s">
+      <c r="B59" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1</v>
+      </c>
+      <c r="H59" s="6" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="C59" s="2">
-        <v>1</v>
-      </c>
-      <c r="D59" s="2">
-        <v>1</v>
-      </c>
-      <c r="E59" s="4">
-        <v>1</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>349</v>
       </c>
@@ -4217,13 +4217,13 @@
         <v>195</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>721</v>
-      </c>
       <c r="C61" s="2">
         <v>1</v>
       </c>
@@ -4240,10 +4240,10 @@
         <v>1</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>351</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>352</v>
       </c>
@@ -4295,7 +4295,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
         <v>353</v>
       </c>
@@ -4321,33 +4321,33 @@
         <v>198</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="B65" s="11" t="s">
         <v>660</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="C65" s="2">
+        <v>0</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+      <c r="F65" s="3">
+        <v>1</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0</v>
+      </c>
+      <c r="H65" s="11" t="s">
         <v>661</v>
       </c>
-      <c r="C65" s="2">
-        <v>0</v>
-      </c>
-      <c r="D65" s="2">
-        <v>0</v>
-      </c>
-      <c r="E65" s="4">
-        <v>0</v>
-      </c>
-      <c r="F65" s="3">
-        <v>1</v>
-      </c>
-      <c r="G65" s="3">
-        <v>0</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
         <v>507</v>
       </c>
@@ -4373,13 +4373,13 @@
         <v>506</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
+        <v>657</v>
+      </c>
+      <c r="B67" s="11" t="s">
         <v>658</v>
       </c>
-      <c r="B67" s="11" t="s">
-        <v>659</v>
-      </c>
       <c r="C67" s="2">
         <v>0</v>
       </c>
@@ -4396,10 +4396,10 @@
         <v>1</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>354</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>355</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>431</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>432</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>442</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>356</v>
       </c>
@@ -4555,33 +4555,33 @@
         <v>201</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B74" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1</v>
+      </c>
+      <c r="E74" s="4">
+        <v>1</v>
+      </c>
+      <c r="F74" s="4">
+        <v>0</v>
+      </c>
+      <c r="G74" s="3">
+        <v>1</v>
+      </c>
+      <c r="H74" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="C74" s="2">
-        <v>0</v>
-      </c>
-      <c r="D74" s="2">
-        <v>1</v>
-      </c>
-      <c r="E74" s="4">
-        <v>1</v>
-      </c>
-      <c r="F74" s="4">
-        <v>0</v>
-      </c>
-      <c r="G74" s="3">
-        <v>1</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>357</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>358</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>359</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="16" t="s">
         <v>448</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="16" t="s">
         <v>450</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="11" t="s">
         <v>445</v>
       </c>
@@ -4737,13 +4737,13 @@
         <v>446</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="B81" s="11" t="s">
         <v>713</v>
       </c>
-      <c r="B81" s="11" t="s">
-        <v>714</v>
-      </c>
       <c r="C81" s="2">
         <v>0</v>
       </c>
@@ -4760,10 +4760,10 @@
         <v>1</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="11" t="s">
         <v>496</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="11" t="s">
         <v>499</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="11" t="s">
         <v>500</v>
       </c>
@@ -4841,85 +4841,85 @@
         <v>504</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="B85" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="C85" s="2">
+        <v>1</v>
+      </c>
+      <c r="D85" s="2">
+        <v>1</v>
+      </c>
+      <c r="E85" s="4">
+        <v>1</v>
+      </c>
+      <c r="F85" s="4">
+        <v>0</v>
+      </c>
+      <c r="G85" s="3">
+        <v>1</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="C85" s="2">
-        <v>1</v>
-      </c>
-      <c r="D85" s="2">
-        <v>1</v>
-      </c>
-      <c r="E85" s="4">
-        <v>1</v>
-      </c>
-      <c r="F85" s="4">
-        <v>0</v>
-      </c>
-      <c r="G85" s="3">
-        <v>1</v>
-      </c>
-      <c r="H85" s="11" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="11" t="s">
+      <c r="B86" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="C86" s="2">
+        <v>0</v>
+      </c>
+      <c r="D86" s="2">
+        <v>1</v>
+      </c>
+      <c r="E86" s="4">
+        <v>1</v>
+      </c>
+      <c r="F86" s="4">
+        <v>0</v>
+      </c>
+      <c r="G86" s="3">
+        <v>1</v>
+      </c>
+      <c r="H86" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="C86" s="2">
-        <v>0</v>
-      </c>
-      <c r="D86" s="2">
-        <v>1</v>
-      </c>
-      <c r="E86" s="4">
-        <v>1</v>
-      </c>
-      <c r="F86" s="4">
-        <v>0</v>
-      </c>
-      <c r="G86" s="3">
-        <v>1</v>
-      </c>
-      <c r="H86" s="11" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
+        <v>716</v>
+      </c>
+      <c r="B87" s="11" t="s">
         <v>717</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="C87" s="2">
+        <v>0</v>
+      </c>
+      <c r="D87" s="2">
+        <v>1</v>
+      </c>
+      <c r="E87" s="4">
+        <v>1</v>
+      </c>
+      <c r="F87" s="4">
+        <v>0</v>
+      </c>
+      <c r="G87" s="3">
+        <v>1</v>
+      </c>
+      <c r="H87" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="C87" s="2">
-        <v>0</v>
-      </c>
-      <c r="D87" s="2">
-        <v>1</v>
-      </c>
-      <c r="E87" s="4">
-        <v>1</v>
-      </c>
-      <c r="F87" s="4">
-        <v>0</v>
-      </c>
-      <c r="G87" s="3">
-        <v>1</v>
-      </c>
-      <c r="H87" s="11" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
         <v>360</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
         <v>361</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
         <v>362</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="13" t="s">
         <v>363</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
         <v>364</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="13" t="s">
         <v>365</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
         <v>366</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="13" t="s">
         <v>367</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="13" t="s">
         <v>368</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="13" t="s">
         <v>369</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
         <v>370</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="13" t="s">
         <v>371</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="13" t="s">
         <v>372</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="13" t="s">
         <v>373</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="13" t="s">
         <v>374</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="13" t="s">
         <v>375</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="13" t="s">
         <v>376</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="13" t="s">
         <v>377</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="13" t="s">
         <v>378</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="13" t="s">
         <v>379</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="13" t="s">
         <v>380</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="13" t="s">
         <v>381</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="13" t="s">
         <v>382</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="13" t="s">
         <v>383</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="13" t="s">
         <v>384</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="13" t="s">
         <v>385</v>
       </c>
@@ -5595,7 +5595,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="13" t="s">
         <v>386</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="13" t="s">
         <v>387</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="13" t="s">
         <v>388</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="14" t="s">
         <v>534</v>
       </c>
@@ -5699,39 +5699,39 @@
         <v>276</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="21" t="s">
+        <v>572</v>
+      </c>
+      <c r="B118" s="21" t="s">
         <v>573</v>
       </c>
-      <c r="B118" s="21" t="s">
+      <c r="C118" s="2">
+        <v>0</v>
+      </c>
+      <c r="D118" s="2">
+        <v>1</v>
+      </c>
+      <c r="E118" s="4">
+        <v>1</v>
+      </c>
+      <c r="F118" s="3">
+        <v>1</v>
+      </c>
+      <c r="G118" s="3">
+        <v>0</v>
+      </c>
+      <c r="H118" s="22" t="s">
         <v>574</v>
       </c>
-      <c r="C118" s="2">
-        <v>0</v>
-      </c>
-      <c r="D118" s="2">
-        <v>1</v>
-      </c>
-      <c r="E118" s="4">
-        <v>1</v>
-      </c>
-      <c r="F118" s="3">
-        <v>1</v>
-      </c>
-      <c r="G118" s="3">
-        <v>0</v>
-      </c>
-      <c r="H118" s="22" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="21" t="s">
+        <v>570</v>
+      </c>
+      <c r="B119" s="21" t="s">
         <v>571</v>
       </c>
-      <c r="B119" s="21" t="s">
-        <v>572</v>
-      </c>
       <c r="C119" s="2">
         <v>0</v>
       </c>
@@ -5748,10 +5748,10 @@
         <v>0</v>
       </c>
       <c r="H119" s="22" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="14" t="s">
         <v>389</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="14" t="s">
         <v>390</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="14" t="s">
         <v>391</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="14" t="s">
         <v>392</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="14" t="s">
         <v>393</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="14" t="s">
         <v>394</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="14" t="s">
         <v>395</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="14" t="s">
         <v>396</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="14" t="s">
         <v>397</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="14" t="s">
         <v>398</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="14" t="s">
         <v>399</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="14" t="s">
         <v>400</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="14" t="s">
         <v>401</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="14" t="s">
         <v>402</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="14" t="s">
         <v>403</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="14" t="s">
         <v>404</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="14" t="s">
         <v>405</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="14" t="s">
         <v>406</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="14" t="s">
         <v>407</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="14" t="s">
         <v>408</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="14" t="s">
         <v>409</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="14" t="s">
         <v>410</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="14" t="s">
         <v>411</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="14" t="s">
         <v>412</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="14" t="s">
         <v>413</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="14" t="s">
         <v>414</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="14" t="s">
         <v>415</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="14" t="s">
         <v>416</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="14" t="s">
         <v>417</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="14" t="s">
         <v>418</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="14" t="s">
         <v>419</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="14" t="s">
         <v>420</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="14" t="s">
         <v>421</v>
       </c>
@@ -6609,7 +6609,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="26" t="s">
         <v>422</v>
       </c>
@@ -6635,33 +6635,33 @@
         <v>269</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="26" t="s">
+        <v>662</v>
+      </c>
+      <c r="B154" s="26" t="s">
+        <v>704</v>
+      </c>
+      <c r="C154" s="2">
+        <v>0</v>
+      </c>
+      <c r="D154" s="2">
+        <v>0</v>
+      </c>
+      <c r="E154" s="17">
+        <v>1</v>
+      </c>
+      <c r="F154" s="19">
+        <v>1</v>
+      </c>
+      <c r="G154" s="3">
+        <v>1</v>
+      </c>
+      <c r="H154" s="26" t="s">
         <v>663</v>
       </c>
-      <c r="B154" s="26" t="s">
-        <v>705</v>
-      </c>
-      <c r="C154" s="2">
-        <v>0</v>
-      </c>
-      <c r="D154" s="2">
-        <v>0</v>
-      </c>
-      <c r="E154" s="17">
-        <v>1</v>
-      </c>
-      <c r="F154" s="19">
-        <v>1</v>
-      </c>
-      <c r="G154" s="3">
-        <v>1</v>
-      </c>
-      <c r="H154" s="26" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="26" t="s">
         <v>423</v>
       </c>
@@ -6687,9 +6687,9 @@
         <v>114</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="26" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B156" s="26" t="s">
         <v>123</v>
@@ -6713,35 +6713,35 @@
         <v>279</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="26" t="s">
+        <v>706</v>
+      </c>
+      <c r="B157" s="26" t="s">
+        <v>703</v>
+      </c>
+      <c r="C157" s="2">
+        <v>0</v>
+      </c>
+      <c r="D157" s="2">
+        <v>0</v>
+      </c>
+      <c r="E157" s="17">
+        <v>1</v>
+      </c>
+      <c r="F157" s="19">
+        <v>1</v>
+      </c>
+      <c r="G157" s="3">
+        <v>1</v>
+      </c>
+      <c r="H157" s="26" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" s="26" t="s">
         <v>707</v>
-      </c>
-      <c r="B157" s="26" t="s">
-        <v>704</v>
-      </c>
-      <c r="C157" s="2">
-        <v>0</v>
-      </c>
-      <c r="D157" s="2">
-        <v>0</v>
-      </c>
-      <c r="E157" s="17">
-        <v>1</v>
-      </c>
-      <c r="F157" s="19">
-        <v>1</v>
-      </c>
-      <c r="G157" s="3">
-        <v>1</v>
-      </c>
-      <c r="H157" s="26" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A158" s="26" t="s">
-        <v>708</v>
       </c>
       <c r="B158" s="26" t="s">
         <v>508</v>
@@ -6765,9 +6765,9 @@
         <v>509</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="26" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B159" s="26" t="s">
         <v>510</v>
@@ -6791,9 +6791,9 @@
         <v>511</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="25" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B160" s="25" t="s">
         <v>115</v>
@@ -6817,9 +6817,9 @@
         <v>270</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="25" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B161" s="28" t="s">
         <v>124</v>
@@ -6843,9 +6843,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="25" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B162" s="28" t="s">
         <v>125</v>
@@ -6869,7 +6869,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="14" t="s">
         <v>530</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="14" t="s">
         <v>424</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="14" t="s">
         <v>425</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="14" t="s">
         <v>535</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="14" t="s">
         <v>426</v>
       </c>
@@ -6999,610 +6999,610 @@
         <v>273</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="B168" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="C168" s="2">
+        <v>0</v>
+      </c>
+      <c r="D168" s="2">
+        <v>0</v>
+      </c>
+      <c r="E168" s="17">
+        <v>1</v>
+      </c>
+      <c r="F168" s="19">
+        <v>1</v>
+      </c>
+      <c r="G168" s="3">
+        <v>0</v>
+      </c>
+      <c r="H168" s="14" t="s">
         <v>665</v>
       </c>
-      <c r="B168" s="14" t="s">
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="B169" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="C169" s="2">
+        <v>0</v>
+      </c>
+      <c r="D169" s="2">
+        <v>0</v>
+      </c>
+      <c r="E169" s="17">
+        <v>1</v>
+      </c>
+      <c r="F169" s="17">
+        <v>1</v>
+      </c>
+      <c r="G169" s="3">
+        <v>0</v>
+      </c>
+      <c r="H169" s="15" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="B170" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="C170" s="2">
+        <v>0</v>
+      </c>
+      <c r="D170" s="2">
+        <v>0</v>
+      </c>
+      <c r="E170" s="17">
+        <v>1</v>
+      </c>
+      <c r="F170" s="17">
+        <v>1</v>
+      </c>
+      <c r="G170" s="3">
+        <v>0</v>
+      </c>
+      <c r="H170" s="15" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="B171" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="C171" s="2">
+        <v>0</v>
+      </c>
+      <c r="D171" s="2">
+        <v>0</v>
+      </c>
+      <c r="E171" s="17">
+        <v>1</v>
+      </c>
+      <c r="F171" s="17">
+        <v>1</v>
+      </c>
+      <c r="G171" s="3">
+        <v>0</v>
+      </c>
+      <c r="H171" s="15" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172" s="15" t="s">
+        <v>584</v>
+      </c>
+      <c r="B172" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="C172" s="2">
+        <v>0</v>
+      </c>
+      <c r="D172" s="2">
+        <v>0</v>
+      </c>
+      <c r="E172" s="17">
+        <v>1</v>
+      </c>
+      <c r="F172" s="17">
+        <v>1</v>
+      </c>
+      <c r="G172" s="3">
+        <v>0</v>
+      </c>
+      <c r="H172" s="15" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="B173" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="C173" s="2">
+        <v>0</v>
+      </c>
+      <c r="D173" s="2">
+        <v>0</v>
+      </c>
+      <c r="E173" s="17">
+        <v>1</v>
+      </c>
+      <c r="F173" s="17">
+        <v>1</v>
+      </c>
+      <c r="G173" s="3">
+        <v>0</v>
+      </c>
+      <c r="H173" s="15" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="B174" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="C174" s="2">
+        <v>0</v>
+      </c>
+      <c r="D174" s="2">
+        <v>0</v>
+      </c>
+      <c r="E174" s="17">
+        <v>1</v>
+      </c>
+      <c r="F174" s="17">
+        <v>1</v>
+      </c>
+      <c r="G174" s="3">
+        <v>0</v>
+      </c>
+      <c r="H174" s="15" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175" s="15" t="s">
+        <v>671</v>
+      </c>
+      <c r="B175" s="15" t="s">
+        <v>672</v>
+      </c>
+      <c r="C175" s="2">
+        <v>0</v>
+      </c>
+      <c r="D175" s="2">
+        <v>0</v>
+      </c>
+      <c r="E175" s="17">
+        <v>1</v>
+      </c>
+      <c r="F175" s="17">
+        <v>1</v>
+      </c>
+      <c r="G175" s="3">
+        <v>0</v>
+      </c>
+      <c r="H175" s="15" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="B176" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="C176" s="2">
+        <v>0</v>
+      </c>
+      <c r="D176" s="2">
+        <v>0</v>
+      </c>
+      <c r="E176" s="17">
+        <v>1</v>
+      </c>
+      <c r="F176" s="17">
+        <v>1</v>
+      </c>
+      <c r="G176" s="3">
+        <v>0</v>
+      </c>
+      <c r="H176" s="15" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="B177" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="C177" s="2">
+        <v>0</v>
+      </c>
+      <c r="D177" s="2">
+        <v>0</v>
+      </c>
+      <c r="E177" s="17">
+        <v>1</v>
+      </c>
+      <c r="F177" s="17">
+        <v>1</v>
+      </c>
+      <c r="G177" s="3">
+        <v>0</v>
+      </c>
+      <c r="H177" s="15" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="B178" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="C178" s="2">
+        <v>0</v>
+      </c>
+      <c r="D178" s="2">
+        <v>0</v>
+      </c>
+      <c r="E178" s="17">
+        <v>1</v>
+      </c>
+      <c r="F178" s="17">
+        <v>1</v>
+      </c>
+      <c r="G178" s="3">
+        <v>0</v>
+      </c>
+      <c r="H178" s="15" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179" s="15" t="s">
         <v>667</v>
       </c>
-      <c r="C168" s="2">
-        <v>0</v>
-      </c>
-      <c r="D168" s="2">
-        <v>0</v>
-      </c>
-      <c r="E168" s="17">
-        <v>1</v>
-      </c>
-      <c r="F168" s="19">
-        <v>1</v>
-      </c>
-      <c r="G168" s="3">
-        <v>0</v>
-      </c>
-      <c r="H168" s="14" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A169" s="15" t="s">
-        <v>576</v>
-      </c>
-      <c r="B169" s="15" t="s">
-        <v>577</v>
-      </c>
-      <c r="C169" s="2">
-        <v>0</v>
-      </c>
-      <c r="D169" s="2">
-        <v>0</v>
-      </c>
-      <c r="E169" s="17">
-        <v>1</v>
-      </c>
-      <c r="F169" s="17">
-        <v>1</v>
-      </c>
-      <c r="G169" s="3">
-        <v>0</v>
-      </c>
-      <c r="H169" s="15" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A170" s="15" t="s">
-        <v>579</v>
-      </c>
-      <c r="B170" s="15" t="s">
-        <v>580</v>
-      </c>
-      <c r="C170" s="2">
-        <v>0</v>
-      </c>
-      <c r="D170" s="2">
-        <v>0</v>
-      </c>
-      <c r="E170" s="17">
-        <v>1</v>
-      </c>
-      <c r="F170" s="17">
-        <v>1</v>
-      </c>
-      <c r="G170" s="3">
-        <v>0</v>
-      </c>
-      <c r="H170" s="15" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A171" s="15" t="s">
-        <v>582</v>
-      </c>
-      <c r="B171" s="15" t="s">
-        <v>583</v>
-      </c>
-      <c r="C171" s="2">
-        <v>0</v>
-      </c>
-      <c r="D171" s="2">
-        <v>0</v>
-      </c>
-      <c r="E171" s="17">
-        <v>1</v>
-      </c>
-      <c r="F171" s="17">
-        <v>1</v>
-      </c>
-      <c r="G171" s="3">
-        <v>0</v>
-      </c>
-      <c r="H171" s="15" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A172" s="15" t="s">
-        <v>585</v>
-      </c>
-      <c r="B172" s="15" t="s">
-        <v>586</v>
-      </c>
-      <c r="C172" s="2">
-        <v>0</v>
-      </c>
-      <c r="D172" s="2">
-        <v>0</v>
-      </c>
-      <c r="E172" s="17">
-        <v>1</v>
-      </c>
-      <c r="F172" s="17">
-        <v>1</v>
-      </c>
-      <c r="G172" s="3">
-        <v>0</v>
-      </c>
-      <c r="H172" s="15" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A173" s="15" t="s">
-        <v>588</v>
-      </c>
-      <c r="B173" s="15" t="s">
-        <v>589</v>
-      </c>
-      <c r="C173" s="2">
-        <v>0</v>
-      </c>
-      <c r="D173" s="2">
-        <v>0</v>
-      </c>
-      <c r="E173" s="17">
-        <v>1</v>
-      </c>
-      <c r="F173" s="17">
-        <v>1</v>
-      </c>
-      <c r="G173" s="3">
-        <v>0</v>
-      </c>
-      <c r="H173" s="15" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A174" s="15" t="s">
-        <v>591</v>
-      </c>
-      <c r="B174" s="15" t="s">
-        <v>592</v>
-      </c>
-      <c r="C174" s="2">
-        <v>0</v>
-      </c>
-      <c r="D174" s="2">
-        <v>0</v>
-      </c>
-      <c r="E174" s="17">
-        <v>1</v>
-      </c>
-      <c r="F174" s="17">
-        <v>1</v>
-      </c>
-      <c r="G174" s="3">
-        <v>0</v>
-      </c>
-      <c r="H174" s="15" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A175" s="15" t="s">
-        <v>672</v>
-      </c>
-      <c r="B175" s="15" t="s">
-        <v>673</v>
-      </c>
-      <c r="C175" s="2">
-        <v>0</v>
-      </c>
-      <c r="D175" s="2">
-        <v>0</v>
-      </c>
-      <c r="E175" s="17">
-        <v>1</v>
-      </c>
-      <c r="F175" s="17">
-        <v>1</v>
-      </c>
-      <c r="G175" s="3">
-        <v>0</v>
-      </c>
-      <c r="H175" s="15" t="s">
+      <c r="B179" s="15" t="s">
+        <v>669</v>
+      </c>
+      <c r="C179" s="2">
+        <v>0</v>
+      </c>
+      <c r="D179" s="2">
+        <v>0</v>
+      </c>
+      <c r="E179" s="17">
+        <v>1</v>
+      </c>
+      <c r="F179" s="17">
+        <v>1</v>
+      </c>
+      <c r="G179" s="3">
+        <v>0</v>
+      </c>
+      <c r="H179" s="15" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="B180" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="C180" s="2">
+        <v>0</v>
+      </c>
+      <c r="D180" s="2">
+        <v>0</v>
+      </c>
+      <c r="E180" s="17">
+        <v>1</v>
+      </c>
+      <c r="F180" s="17">
+        <v>1</v>
+      </c>
+      <c r="G180" s="3">
+        <v>0</v>
+      </c>
+      <c r="H180" s="15" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="B181" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="C181" s="2">
+        <v>0</v>
+      </c>
+      <c r="D181" s="2">
+        <v>0</v>
+      </c>
+      <c r="E181" s="17">
+        <v>1</v>
+      </c>
+      <c r="F181" s="17">
+        <v>1</v>
+      </c>
+      <c r="G181" s="3">
+        <v>0</v>
+      </c>
+      <c r="H181" s="15" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" s="15" t="s">
+        <v>607</v>
+      </c>
+      <c r="B182" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="C182" s="2">
+        <v>0</v>
+      </c>
+      <c r="D182" s="2">
+        <v>0</v>
+      </c>
+      <c r="E182" s="17">
+        <v>1</v>
+      </c>
+      <c r="F182" s="17">
+        <v>1</v>
+      </c>
+      <c r="G182" s="3">
+        <v>0</v>
+      </c>
+      <c r="H182" s="15" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183" s="15" t="s">
+        <v>610</v>
+      </c>
+      <c r="B183" s="15" t="s">
+        <v>611</v>
+      </c>
+      <c r="C183" s="2">
+        <v>0</v>
+      </c>
+      <c r="D183" s="2">
+        <v>0</v>
+      </c>
+      <c r="E183" s="17">
+        <v>1</v>
+      </c>
+      <c r="F183" s="17">
+        <v>1</v>
+      </c>
+      <c r="G183" s="3">
+        <v>0</v>
+      </c>
+      <c r="H183" s="15" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184" s="14" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A176" s="15" t="s">
-        <v>594</v>
-      </c>
-      <c r="B176" s="15" t="s">
-        <v>595</v>
-      </c>
-      <c r="C176" s="2">
-        <v>0</v>
-      </c>
-      <c r="D176" s="2">
-        <v>0</v>
-      </c>
-      <c r="E176" s="17">
-        <v>1</v>
-      </c>
-      <c r="F176" s="17">
-        <v>1</v>
-      </c>
-      <c r="G176" s="3">
-        <v>0</v>
-      </c>
-      <c r="H176" s="15" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A177" s="15" t="s">
-        <v>597</v>
-      </c>
-      <c r="B177" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="C177" s="2">
-        <v>0</v>
-      </c>
-      <c r="D177" s="2">
-        <v>0</v>
-      </c>
-      <c r="E177" s="17">
-        <v>1</v>
-      </c>
-      <c r="F177" s="17">
-        <v>1</v>
-      </c>
-      <c r="G177" s="3">
-        <v>0</v>
-      </c>
-      <c r="H177" s="15" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A178" s="15" t="s">
-        <v>600</v>
-      </c>
-      <c r="B178" s="15" t="s">
-        <v>601</v>
-      </c>
-      <c r="C178" s="2">
-        <v>0</v>
-      </c>
-      <c r="D178" s="2">
-        <v>0</v>
-      </c>
-      <c r="E178" s="17">
-        <v>1</v>
-      </c>
-      <c r="F178" s="17">
-        <v>1</v>
-      </c>
-      <c r="G178" s="3">
-        <v>0</v>
-      </c>
-      <c r="H178" s="15" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A179" s="15" t="s">
-        <v>668</v>
-      </c>
-      <c r="B179" s="15" t="s">
-        <v>670</v>
-      </c>
-      <c r="C179" s="2">
-        <v>0</v>
-      </c>
-      <c r="D179" s="2">
-        <v>0</v>
-      </c>
-      <c r="E179" s="17">
-        <v>1</v>
-      </c>
-      <c r="F179" s="17">
-        <v>1</v>
-      </c>
-      <c r="G179" s="3">
-        <v>0</v>
-      </c>
-      <c r="H179" s="15" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A180" s="15" t="s">
-        <v>603</v>
-      </c>
-      <c r="B180" s="15" t="s">
-        <v>604</v>
-      </c>
-      <c r="C180" s="2">
-        <v>0</v>
-      </c>
-      <c r="D180" s="2">
-        <v>0</v>
-      </c>
-      <c r="E180" s="17">
-        <v>1</v>
-      </c>
-      <c r="F180" s="17">
-        <v>1</v>
-      </c>
-      <c r="G180" s="3">
-        <v>0</v>
-      </c>
-      <c r="H180" s="15" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A181" s="15" t="s">
-        <v>606</v>
-      </c>
-      <c r="B181" s="15" t="s">
-        <v>671</v>
-      </c>
-      <c r="C181" s="2">
-        <v>0</v>
-      </c>
-      <c r="D181" s="2">
-        <v>0</v>
-      </c>
-      <c r="E181" s="17">
-        <v>1</v>
-      </c>
-      <c r="F181" s="17">
-        <v>1</v>
-      </c>
-      <c r="G181" s="3">
-        <v>0</v>
-      </c>
-      <c r="H181" s="15" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A182" s="15" t="s">
-        <v>608</v>
-      </c>
-      <c r="B182" s="15" t="s">
-        <v>609</v>
-      </c>
-      <c r="C182" s="2">
-        <v>0</v>
-      </c>
-      <c r="D182" s="2">
-        <v>0</v>
-      </c>
-      <c r="E182" s="17">
-        <v>1</v>
-      </c>
-      <c r="F182" s="17">
-        <v>1</v>
-      </c>
-      <c r="G182" s="3">
-        <v>0</v>
-      </c>
-      <c r="H182" s="15" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A183" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="B183" s="15" t="s">
-        <v>612</v>
-      </c>
-      <c r="C183" s="2">
-        <v>0</v>
-      </c>
-      <c r="D183" s="2">
-        <v>0</v>
-      </c>
-      <c r="E183" s="17">
-        <v>1</v>
-      </c>
-      <c r="F183" s="17">
-        <v>1</v>
-      </c>
-      <c r="G183" s="3">
-        <v>0</v>
-      </c>
-      <c r="H183" s="15" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A184" s="14" t="s">
+      <c r="B184" s="14" t="s">
         <v>675</v>
       </c>
-      <c r="B184" s="14" t="s">
+      <c r="C184" s="2">
+        <v>0</v>
+      </c>
+      <c r="D184" s="2">
+        <v>0</v>
+      </c>
+      <c r="E184" s="17">
+        <v>1</v>
+      </c>
+      <c r="F184" s="19">
+        <v>1</v>
+      </c>
+      <c r="G184" s="3">
+        <v>0</v>
+      </c>
+      <c r="H184" s="14" t="s">
         <v>676</v>
       </c>
-      <c r="C184" s="2">
-        <v>0</v>
-      </c>
-      <c r="D184" s="2">
-        <v>0</v>
-      </c>
-      <c r="E184" s="17">
-        <v>1</v>
-      </c>
-      <c r="F184" s="19">
-        <v>1</v>
-      </c>
-      <c r="G184" s="3">
-        <v>0</v>
-      </c>
-      <c r="H184" s="14" t="s">
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A185" s="14" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A185" s="14" t="s">
+      <c r="B185" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="B185" s="14" t="s">
+      <c r="C185" s="2">
+        <v>0</v>
+      </c>
+      <c r="D185" s="2">
+        <v>0</v>
+      </c>
+      <c r="E185" s="17">
+        <v>1</v>
+      </c>
+      <c r="F185" s="19">
+        <v>1</v>
+      </c>
+      <c r="G185" s="3">
+        <v>0</v>
+      </c>
+      <c r="H185" s="14" t="s">
         <v>679</v>
       </c>
-      <c r="C185" s="2">
-        <v>0</v>
-      </c>
-      <c r="D185" s="2">
-        <v>0</v>
-      </c>
-      <c r="E185" s="17">
-        <v>1</v>
-      </c>
-      <c r="F185" s="19">
-        <v>1</v>
-      </c>
-      <c r="G185" s="3">
-        <v>0</v>
-      </c>
-      <c r="H185" s="14" t="s">
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A186" s="15" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A186" s="15" t="s">
+      <c r="B186" s="15" t="s">
+        <v>682</v>
+      </c>
+      <c r="C186" s="2">
+        <v>0</v>
+      </c>
+      <c r="D186" s="2">
+        <v>0</v>
+      </c>
+      <c r="E186" s="17">
+        <v>1</v>
+      </c>
+      <c r="F186" s="17">
+        <v>1</v>
+      </c>
+      <c r="G186" s="3">
+        <v>0</v>
+      </c>
+      <c r="H186" s="15" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A187" s="15" t="s">
         <v>681</v>
       </c>
-      <c r="B186" s="15" t="s">
+      <c r="B187" s="15" t="s">
         <v>683</v>
       </c>
-      <c r="C186" s="2">
-        <v>0</v>
-      </c>
-      <c r="D186" s="2">
-        <v>0</v>
-      </c>
-      <c r="E186" s="17">
-        <v>1</v>
-      </c>
-      <c r="F186" s="17">
-        <v>1</v>
-      </c>
-      <c r="G186" s="3">
-        <v>0</v>
-      </c>
-      <c r="H186" s="15" t="s">
+      <c r="C187" s="2">
+        <v>0</v>
+      </c>
+      <c r="D187" s="2">
+        <v>0</v>
+      </c>
+      <c r="E187" s="17">
+        <v>1</v>
+      </c>
+      <c r="F187" s="17">
+        <v>1</v>
+      </c>
+      <c r="G187" s="3">
+        <v>0</v>
+      </c>
+      <c r="H187" s="15" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A187" s="15" t="s">
-        <v>682</v>
-      </c>
-      <c r="B187" s="15" t="s">
-        <v>684</v>
-      </c>
-      <c r="C187" s="2">
-        <v>0</v>
-      </c>
-      <c r="D187" s="2">
-        <v>0</v>
-      </c>
-      <c r="E187" s="17">
-        <v>1</v>
-      </c>
-      <c r="F187" s="17">
-        <v>1</v>
-      </c>
-      <c r="G187" s="3">
-        <v>0</v>
-      </c>
-      <c r="H187" s="15" t="s">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A188" s="14" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A188" s="14" t="s">
+      <c r="B188" s="14" t="s">
         <v>687</v>
       </c>
-      <c r="B188" s="14" t="s">
+      <c r="C188" s="2">
+        <v>0</v>
+      </c>
+      <c r="D188" s="2">
+        <v>0</v>
+      </c>
+      <c r="E188" s="17">
+        <v>1</v>
+      </c>
+      <c r="F188" s="19">
+        <v>1</v>
+      </c>
+      <c r="G188" s="3">
+        <v>0</v>
+      </c>
+      <c r="H188" s="14" t="s">
         <v>688</v>
       </c>
-      <c r="C188" s="2">
-        <v>0</v>
-      </c>
-      <c r="D188" s="2">
-        <v>0</v>
-      </c>
-      <c r="E188" s="17">
-        <v>1</v>
-      </c>
-      <c r="F188" s="19">
-        <v>1</v>
-      </c>
-      <c r="G188" s="3">
-        <v>0</v>
-      </c>
-      <c r="H188" s="14" t="s">
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A189" s="14" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A189" s="14" t="s">
+      <c r="B189" s="14" t="s">
+        <v>691</v>
+      </c>
+      <c r="C189" s="2">
+        <v>0</v>
+      </c>
+      <c r="D189" s="2">
+        <v>0</v>
+      </c>
+      <c r="E189" s="17">
+        <v>1</v>
+      </c>
+      <c r="F189" s="19">
+        <v>1</v>
+      </c>
+      <c r="G189" s="3">
+        <v>0</v>
+      </c>
+      <c r="H189" s="14" t="s">
         <v>690</v>
       </c>
-      <c r="B189" s="14" t="s">
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A190" s="14" t="s">
         <v>692</v>
       </c>
-      <c r="C189" s="2">
-        <v>0</v>
-      </c>
-      <c r="D189" s="2">
-        <v>0</v>
-      </c>
-      <c r="E189" s="17">
-        <v>1</v>
-      </c>
-      <c r="F189" s="19">
-        <v>1</v>
-      </c>
-      <c r="G189" s="3">
-        <v>0</v>
-      </c>
-      <c r="H189" s="14" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A190" s="14" t="s">
+      <c r="B190" s="14" t="s">
         <v>693</v>
       </c>
-      <c r="B190" s="14" t="s">
+      <c r="C190" s="2">
+        <v>0</v>
+      </c>
+      <c r="D190" s="2">
+        <v>0</v>
+      </c>
+      <c r="E190" s="17">
+        <v>1</v>
+      </c>
+      <c r="F190" s="19">
+        <v>1</v>
+      </c>
+      <c r="G190" s="3">
+        <v>0</v>
+      </c>
+      <c r="H190" s="14" t="s">
         <v>694</v>
       </c>
-      <c r="C190" s="2">
-        <v>0</v>
-      </c>
-      <c r="D190" s="2">
-        <v>0</v>
-      </c>
-      <c r="E190" s="17">
-        <v>1</v>
-      </c>
-      <c r="F190" s="19">
-        <v>1</v>
-      </c>
-      <c r="G190" s="3">
-        <v>0</v>
-      </c>
-      <c r="H190" s="14" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="14" t="s">
         <v>427</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C191" s="2">
         <v>0</v>
@@ -7623,12 +7623,12 @@
         <v>274</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="14" t="s">
         <v>428</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C192" s="2">
         <v>0</v>
@@ -7649,7 +7649,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="27" t="s">
         <v>512</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="27" t="s">
         <v>513</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="27" t="s">
         <v>514</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="27" t="s">
         <v>515</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="27" t="s">
         <v>516</v>
       </c>
@@ -7779,7 +7779,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="27" t="s">
         <v>517</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="27" t="s">
         <v>518</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="27" t="s">
         <v>519</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="27" t="s">
         <v>520</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="27" t="s">
         <v>521</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="27" t="s">
         <v>522</v>
       </c>
@@ -7935,7 +7935,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="27" t="s">
         <v>523</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="27" t="s">
         <v>524</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="27" t="s">
         <v>525</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="27" t="s">
         <v>526</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="27" t="s">
         <v>527</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="27" t="s">
         <v>528</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="27" t="s">
         <v>529</v>
       </c>
@@ -8117,9 +8117,9 @@
         <v>476</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="27" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B211" s="27" t="s">
         <v>121</v>
@@ -8143,9 +8143,9 @@
         <v>277</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="27" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B212" s="27" t="s">
         <v>122</v>
@@ -8169,9 +8169,9 @@
         <v>278</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B213" s="25" t="s">
         <v>126</v>
@@ -8195,9 +8195,9 @@
         <v>282</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="25" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B214" s="25" t="s">
         <v>127</v>
@@ -8221,9 +8221,9 @@
         <v>283</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="25" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B215" s="25" t="s">
         <v>128</v>
@@ -8247,9 +8247,9 @@
         <v>284</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="25" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B216" s="25" t="s">
         <v>129</v>
@@ -8273,9 +8273,9 @@
         <v>285</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="25" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B217" s="25" t="s">
         <v>130</v>
@@ -8299,9 +8299,9 @@
         <v>286</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="25" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B218" s="25" t="s">
         <v>131</v>
@@ -8325,9 +8325,9 @@
         <v>287</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="25" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B219" s="25" t="s">
         <v>132</v>
@@ -8351,9 +8351,9 @@
         <v>288</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="25" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B220" s="25" t="s">
         <v>133</v>
@@ -8377,9 +8377,9 @@
         <v>289</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="25" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B221" s="25" t="s">
         <v>134</v>
@@ -8403,9 +8403,9 @@
         <v>290</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="25" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B222" s="25" t="s">
         <v>135</v>
@@ -8429,9 +8429,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="25" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B223" s="25" t="s">
         <v>136</v>
@@ -8455,9 +8455,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="25" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B224" s="25" t="s">
         <v>137</v>
@@ -8481,9 +8481,9 @@
         <v>293</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="25" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B225" s="25" t="s">
         <v>138</v>
@@ -8507,9 +8507,9 @@
         <v>294</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="25" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B226" s="25" t="s">
         <v>139</v>
@@ -8533,9 +8533,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="25" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B227" s="25" t="s">
         <v>140</v>
@@ -8559,9 +8559,9 @@
         <v>296</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="25" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B228" s="25" t="s">
         <v>141</v>
@@ -8585,9 +8585,9 @@
         <v>297</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="14" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B229" s="14" t="s">
         <v>142</v>
@@ -8611,9 +8611,9 @@
         <v>298</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="14" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B230" s="14" t="s">
         <v>143</v>
@@ -8637,9 +8637,9 @@
         <v>299</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B231" s="14" t="s">
         <v>144</v>
@@ -8663,9 +8663,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="14" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B232" s="14" t="s">
         <v>145</v>
@@ -8689,9 +8689,9 @@
         <v>301</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B233" s="14" t="s">
         <v>146</v>
@@ -8715,9 +8715,9 @@
         <v>302</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="14" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B234" s="14" t="s">
         <v>147</v>
@@ -8741,12 +8741,12 @@
         <v>303</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="14" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B235" s="14" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C235" s="2">
         <v>0</v>
@@ -8767,12 +8767,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="14" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B236" s="14" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C236" s="2">
         <v>0</v>
@@ -8793,12 +8793,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="14" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B237" s="14" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C237" s="2">
         <v>0</v>
@@ -8819,9 +8819,9 @@
         <v>304</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="14" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B238" s="14" t="s">
         <v>148</v>
@@ -8845,9 +8845,9 @@
         <v>305</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="14" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B239" s="14" t="s">
         <v>149</v>
@@ -8871,9 +8871,9 @@
         <v>306</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="14" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B240" s="14" t="s">
         <v>150</v>
@@ -8897,9 +8897,9 @@
         <v>307</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="14" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B241" s="14" t="s">
         <v>151</v>
@@ -8923,9 +8923,9 @@
         <v>308</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="15" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B242" s="15" t="s">
         <v>152</v>
@@ -8949,9 +8949,9 @@
         <v>309</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="15" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B243" s="15" t="s">
         <v>153</v>
@@ -8975,9 +8975,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="15" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B244" s="15" t="s">
         <v>154</v>
@@ -9001,9 +9001,9 @@
         <v>311</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="15" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B245" s="15" t="s">
         <v>155</v>
@@ -9027,9 +9027,9 @@
         <v>312</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="15" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B246" s="15" t="s">
         <v>156</v>
@@ -9053,9 +9053,9 @@
         <v>313</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="15" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B247" s="15" t="s">
         <v>157</v>
@@ -9079,9 +9079,9 @@
         <v>314</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="15" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B248" s="15" t="s">
         <v>158</v>
@@ -9105,9 +9105,9 @@
         <v>203</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="15" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B249" s="15" t="s">
         <v>159</v>
@@ -9131,30 +9131,30 @@
         <v>202</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="B250" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="B250" s="5" t="s">
+      <c r="C250" s="2">
+        <v>1</v>
+      </c>
+      <c r="D250" s="2">
+        <v>1</v>
+      </c>
+      <c r="E250" s="4">
+        <v>1</v>
+      </c>
+      <c r="F250" s="3">
+        <v>1</v>
+      </c>
+      <c r="G250" s="3">
+        <v>0</v>
+      </c>
+      <c r="H250" s="5" t="s">
         <v>554</v>
-      </c>
-      <c r="C250" s="2">
-        <v>1</v>
-      </c>
-      <c r="D250" s="2">
-        <v>1</v>
-      </c>
-      <c r="E250" s="4">
-        <v>1</v>
-      </c>
-      <c r="F250" s="3">
-        <v>1</v>
-      </c>
-      <c r="G250" s="3">
-        <v>0</v>
-      </c>
-      <c r="H250" s="5" t="s">
-        <v>555</v>
       </c>
     </row>
   </sheetData>
